--- a/data-buoy-node/bill_of_materials_colombia.xlsx
+++ b/data-buoy-node/bill_of_materials_colombia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\Uniandes\AsistenciaInvestigacion\Prototipos\prototype-2-node\Resources\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\Uniandes\AsistenciaInvestigacion\OpenSourceDataBuoy\open-source-fish-farming-prototypes\data-buoy-node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32DD8B5-5206-467E-80CF-729C67576D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF133B8-D9B3-4F5F-9FF4-D87B7B5117CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{2A1E9992-CBC8-4E9B-A1A4-45F69FA0AC17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2A1E9992-CBC8-4E9B-A1A4-45F69FA0AC17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Producto</t>
   </si>
@@ -184,61 +184,77 @@
     <t>Circuito Impreso Electrónica</t>
   </si>
   <si>
-    <t>Se vende por 2 unidades. Solo se requiren 3 en el prototipo. 
+    <t>Tornillo M3 x 6mm</t>
+  </si>
+  <si>
+    <t>Conector SMA Hembra</t>
+  </si>
+  <si>
+    <t>Adaptador SMA Macho a BNC Hembra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se incluye link de Amazon como referencia, ya que no se encontraron distribuidores nacionales que vendan este producto por página web. </t>
+  </si>
+  <si>
+    <t>Precio Total del Prototipo (USD)</t>
+  </si>
+  <si>
+    <t>Porcentaje del Precio Total (%)</t>
+  </si>
+  <si>
+    <t>Precio Total (COP)</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Mecánica</t>
+  </si>
+  <si>
+    <t>Electrónica</t>
+  </si>
+  <si>
+    <t>Sensórica</t>
+  </si>
+  <si>
+    <t>Prototipo Completo</t>
+  </si>
+  <si>
+    <t>Partes</t>
+  </si>
+  <si>
+    <t>Componentes LoRaWAN</t>
+  </si>
+  <si>
+    <t>Sondas, circuitos de lectura y conectores</t>
+  </si>
+  <si>
+    <t>Terminal Tipo Anillo 6.2mm</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Complete Prototype</t>
+  </si>
+  <si>
+    <t>Total Price (USD)</t>
+  </si>
+  <si>
+    <t>Percentage of Total Price (%)</t>
+  </si>
+  <si>
+    <t>Mechanical Structure</t>
+  </si>
+  <si>
+    <t>Se vende por 2 unidades. Solo se requieren 3 en el prototipo. 
 Se puede cambiar por otra pila AA que también tenga tensión nominal de 1.5V.</t>
-  </si>
-  <si>
-    <t>Tornillo M3 x 6mm</t>
-  </si>
-  <si>
-    <t>Conector SMA Hembra</t>
-  </si>
-  <si>
-    <t>Adaptador SMA Macho a BNC Hembra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se incluye link de Amazon como referencia, ya que no se encontraron distribuidores nacionales que vendan este producto por página web. </t>
-  </si>
-  <si>
-    <t>Precio Total del Prototipo (USD)</t>
-  </si>
-  <si>
-    <t>Porcentaje del Precio Total (%)</t>
-  </si>
-  <si>
-    <t>Precio Total (COP)</t>
-  </si>
-  <si>
-    <t>Sección</t>
-  </si>
-  <si>
-    <t>Mecánica</t>
-  </si>
-  <si>
-    <t>Electrónica</t>
-  </si>
-  <si>
-    <t>Sensórica</t>
-  </si>
-  <si>
-    <t>Prototipo Completo</t>
-  </si>
-  <si>
-    <t>Partes</t>
-  </si>
-  <si>
-    <t>Componentes LoRaWAN</t>
-  </si>
-  <si>
-    <t>Sondas, circuitos de lectura y conectores</t>
-  </si>
-  <si>
-    <t>PENDIENTE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar lo del counterpoise.
-Agregar los costos de la impresion 3D del sujetador.
-</t>
   </si>
 </sst>
 </file>
@@ -304,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -386,6 +402,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -393,7 +418,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +468,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,33 +508,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17152D26-0A2A-4350-AE43-DFC63D57EE7C}">
-  <dimension ref="B2:K52"/>
+  <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,7 +881,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -858,11 +910,11 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
+      <c r="B3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
@@ -883,8 +935,8 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="27"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
@@ -895,7 +947,7 @@
         <v>30900</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" ref="G4:G38" si="0">E4*F4</f>
+        <f t="shared" ref="G4:G39" si="0">E4*F4</f>
         <v>30900</v>
       </c>
       <c r="H4" s="14"/>
@@ -904,8 +956,8 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="27"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
@@ -925,8 +977,8 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="27"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -946,8 +998,8 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="27"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
@@ -967,8 +1019,8 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="27"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
@@ -988,8 +1040,8 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="27"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1009,8 +1061,8 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="27"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1030,8 +1082,8 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1051,8 +1103,8 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="27"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1072,8 +1124,8 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="28"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1093,11 +1145,11 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>63</v>
+      <c r="B14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
@@ -1117,8 +1169,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="27"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="15" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13">
-        <f>I15*$I$41</f>
+        <f>I15*$I$42</f>
         <v>7542</v>
       </c>
       <c r="G15" s="13">
@@ -1145,8 +1197,8 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="27"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
@@ -1164,630 +1216,705 @@
       <c r="I16" s="13"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
-      <c r="C17" s="11"/>
+    <row r="17" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2">
+        <v>64</v>
+      </c>
+      <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="13">
-        <v>8806</v>
+        <v>833</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="0"/>
-        <v>8806</v>
+        <v>833</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27"/>
-      <c r="C18" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="13">
-        <v>140420</v>
+        <v>8806</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="0"/>
-        <v>140420</v>
+        <v>8806</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="27"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="27" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="13">
-        <v>36</v>
+        <v>140420</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>140420</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="27"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="13">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="27"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="13">
-        <v>5950</v>
+        <v>70</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="0"/>
-        <v>5950</v>
+        <v>70</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="27"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="8" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="13">
-        <v>404.6</v>
+        <v>5950</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="0"/>
-        <v>404.6</v>
+        <v>5950</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="27"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="13">
-        <v>1547</v>
+        <v>404.6</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
-        <v>3094</v>
+        <v>404.6</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="27"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="13">
-        <v>952</v>
+        <v>1547</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="0"/>
-        <v>952</v>
+        <v>3094</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="27"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="13">
-        <v>99.96</v>
+        <v>952</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="0"/>
-        <v>99.96</v>
+        <v>952</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="27"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="13">
-        <v>1547</v>
+        <v>99.96</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="0"/>
-        <v>1547</v>
+        <v>99.96</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="27"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="8" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="13">
-        <v>499.8</v>
+        <v>1547</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="0"/>
-        <v>999.6</v>
+        <v>1547</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="27"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="8" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="13">
-        <v>345.1</v>
+        <v>499.8</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="0"/>
-        <v>345.1</v>
+        <v>999.6</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="27"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="13">
-        <v>476</v>
+        <v>345.1</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="0"/>
-        <v>952</v>
+        <v>345.1</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="27"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="24"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="13">
-        <v>714</v>
+        <v>476</v>
       </c>
       <c r="G30" s="13">
-        <f>E30*F30</f>
-        <v>2142</v>
+        <f t="shared" si="0"/>
+        <v>952</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="24"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="13">
-        <v>9000</v>
+        <v>714</v>
       </c>
       <c r="G31" s="13">
         <f>E31*F31</f>
-        <v>18000</v>
+        <v>2142</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="27"/>
-      <c r="C32" s="18"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="13">
-        <v>202.3</v>
+        <v>9000</v>
       </c>
       <c r="G32" s="13">
         <f>E32*F32</f>
-        <v>1011.5</v>
+        <v>18000</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
+      <c r="J32" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" s="13">
-        <f>I33*$I$41</f>
-        <v>43743.6</v>
+        <v>202.3</v>
       </c>
       <c r="G33" s="13">
         <f>E33*F33</f>
+        <v>1011.5</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13">
+        <f>I34*$I$42</f>
         <v>43743.6</v>
       </c>
-      <c r="H33" s="13">
+      <c r="G34" s="13">
+        <f>E34*F34</f>
+        <v>43743.6</v>
+      </c>
+      <c r="H34" s="13">
         <v>11.6</v>
       </c>
-      <c r="I33" s="13">
-        <f>E33*H33</f>
+      <c r="I34" s="13">
+        <f>E34*H34</f>
         <v>11.6</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="8" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1558.52</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>1558.52</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1558.52</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="0"/>
-        <v>1558.52</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="27"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="8" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <f>I36*$I$42</f>
+        <v>18855</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>18855</v>
+      </c>
+      <c r="H36" s="13">
+        <v>5</v>
+      </c>
+      <c r="I36" s="13">
+        <f>E36*H36</f>
+        <v>5</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13">
-        <f>I35*$I$41</f>
-        <v>18855</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="0"/>
-        <v>18855</v>
-      </c>
-      <c r="H35" s="13">
-        <v>5</v>
-      </c>
-      <c r="I35" s="13">
-        <f>E35*H35</f>
-        <v>5</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8" t="s">
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13">
-        <f>I36*$I$41</f>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <f>I37*$I$42</f>
         <v>279016.28999999998</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <f t="shared" si="0"/>
         <v>279016.28999999998</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>73.989999999999995</v>
       </c>
-      <c r="I36" s="13">
-        <f t="shared" ref="I36:I38" si="2">E36*H36</f>
+      <c r="I37" s="13">
+        <f t="shared" ref="I37:I39" si="2">E37*H37</f>
         <v>73.989999999999995</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="27"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8" t="s">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
-        <f>I37*$I$41</f>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13">
+        <f>I38*$I$42</f>
         <v>644803.29</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <f t="shared" si="0"/>
         <v>644803.29</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>170.99</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <f t="shared" si="2"/>
         <v>170.99</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="28"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="8" t="s">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13">
-        <f>I38*$I$41</f>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="32">
+        <f>I39*$I$42</f>
         <v>1172743.29</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <f t="shared" si="0"/>
         <v>1172743.29</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>310.99</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <f t="shared" si="2"/>
         <v>310.99</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F39" s="13"/>
-    </row>
-    <row r="41" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="10" t="s">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F40" s="33"/>
+    </row>
+    <row r="42" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="12">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <f>SUM(G3:G13)</f>
         <v>91650</v>
       </c>
-      <c r="F42" s="21">
-        <f>(E42/$E$45)</f>
-        <v>3.6904265643870213E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="22">
-        <f>SUM(G14:G33)</f>
-        <v>274826.36</v>
-      </c>
-      <c r="F43" s="21">
-        <f>(E43/$E$45)</f>
-        <v>0.11066301140619647</v>
+      <c r="F43" s="17">
+        <f>(E43/$E$46)</f>
+        <v>3.6891891361531176E-2</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="18">
+        <f>SUM(G14:G34)</f>
+        <v>275659.36</v>
+      </c>
+      <c r="F44" s="17">
+        <f>(E44/$E$46)</f>
+        <v>0.11096121289589975</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="18">
+        <f>SUM(G35:G39)</f>
+        <v>2116976.39</v>
+      </c>
+      <c r="F45" s="19">
+        <f>(E45/$E$46)</f>
+        <v>0.85214689574256908</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D46" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="22">
-        <f>SUM(G34:G38)</f>
-        <v>2116976.39</v>
-      </c>
-      <c r="F44" s="23">
-        <f>(E44/$E$45)</f>
-        <v>0.85243272294993333</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="25">
-        <f>SUM(G3:G38)</f>
-        <v>2483452.75</v>
-      </c>
-      <c r="F45" s="21">
-        <f>(E45/$E$45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="22">
-        <f>E45/$I$41</f>
-        <v>658.56609652612042</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="29" t="s">
+      <c r="E46" s="21">
+        <f>SUM(G3:G39)</f>
+        <v>2484285.75</v>
+      </c>
+      <c r="F46" s="17">
+        <f>(E46/$E$46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="18">
+        <f>E46/$I$42</f>
+        <v>658.78699284009542</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="20" t="s">
+      <c r="E50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="13">
+        <f>SUM(G3:G13)/I42</f>
+        <v>24.303898170246619</v>
+      </c>
+      <c r="F51" s="17">
+        <f>(E51/$E$54)</f>
+        <v>3.6891891361531176E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="E52" s="18">
+        <f>SUM(G14:G34)/I42</f>
+        <v>73.099803765579423</v>
+      </c>
+      <c r="F52" s="17">
+        <f t="shared" ref="F52:F54" si="3">(E52/$E$54)</f>
+        <v>0.11096121289589976</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="37">
+        <f>SUM(G35:G39)/I42</f>
+        <v>561.38329090426942</v>
+      </c>
+      <c r="F53" s="38">
+        <f t="shared" si="3"/>
+        <v>0.85214689574256908</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="37">
+        <f>SUM(G3:G39)/I42</f>
+        <v>658.78699284009542</v>
+      </c>
+      <c r="F54" s="38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D52"/>
+  <mergeCells count="7">
     <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B33"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B14:B34"/>
+    <mergeCell ref="B35:B39"/>
     <mergeCell ref="C3:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C19:C34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{B6AC1B27-0BAA-4054-99E3-88E9C5BF9FFC}"/>
     <hyperlink ref="D16" r:id="rId2" display="Cable RF SMA Macho a SMA Hembra 15cm" xr:uid="{85F82049-A9EF-4998-BA78-C8C8344ECF94}"/>
-    <hyperlink ref="D19" r:id="rId3" xr:uid="{7B19B016-BCE7-48F4-8785-E0A35907337F}"/>
-    <hyperlink ref="D20" r:id="rId4" xr:uid="{21E7BC45-5BA4-46C4-A23C-765869600B4A}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{F62AF7DF-5E02-4CC7-B83C-4D30EC25EACC}"/>
-    <hyperlink ref="D35" r:id="rId6" xr:uid="{F3069770-E2CF-453E-9CC2-D0DCA2DDB18F}"/>
-    <hyperlink ref="D22" r:id="rId7" display="Regleta Header Macho 40 pines" xr:uid="{53AC9F41-A774-406C-A2FD-4451946FDAC0}"/>
-    <hyperlink ref="D34" r:id="rId8" xr:uid="{DACC13A9-CE64-4AB7-87C9-5D09B72D6847}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{1EE6B2AB-7739-46EF-A4E2-A3AABC3E375E}"/>
-    <hyperlink ref="D32" r:id="rId10" xr:uid="{494F12BF-1DC9-48FE-B877-B6CFF2DA3B8A}"/>
-    <hyperlink ref="D30" r:id="rId11" xr:uid="{05C78F4A-D72E-478E-8189-573F2194A8C1}"/>
-    <hyperlink ref="D31" r:id="rId12" xr:uid="{3FDB8562-DB2C-4C66-9B6C-71D90774B4F1}"/>
-    <hyperlink ref="D36" r:id="rId13" xr:uid="{CA71AD4D-1B5D-4916-9696-C636491FA7EA}"/>
-    <hyperlink ref="D37" r:id="rId14" xr:uid="{EE75EDF5-C24D-4E43-9380-10DCA90A6A5D}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{7B19B016-BCE7-48F4-8785-E0A35907337F}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{21E7BC45-5BA4-46C4-A23C-765869600B4A}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{F62AF7DF-5E02-4CC7-B83C-4D30EC25EACC}"/>
+    <hyperlink ref="D36" r:id="rId6" xr:uid="{F3069770-E2CF-453E-9CC2-D0DCA2DDB18F}"/>
+    <hyperlink ref="D23" r:id="rId7" display="Regleta Header Macho 40 pines" xr:uid="{53AC9F41-A774-406C-A2FD-4451946FDAC0}"/>
+    <hyperlink ref="D35" r:id="rId8" xr:uid="{DACC13A9-CE64-4AB7-87C9-5D09B72D6847}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{1EE6B2AB-7739-46EF-A4E2-A3AABC3E375E}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{494F12BF-1DC9-48FE-B877-B6CFF2DA3B8A}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{05C78F4A-D72E-478E-8189-573F2194A8C1}"/>
+    <hyperlink ref="D32" r:id="rId12" xr:uid="{3FDB8562-DB2C-4C66-9B6C-71D90774B4F1}"/>
+    <hyperlink ref="D37" r:id="rId13" xr:uid="{CA71AD4D-1B5D-4916-9696-C636491FA7EA}"/>
+    <hyperlink ref="D38" r:id="rId14" xr:uid="{EE75EDF5-C24D-4E43-9380-10DCA90A6A5D}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{5C9F9C3D-EB34-498C-AD8C-97918D6B4BFA}"/>
     <hyperlink ref="D6" r:id="rId16" display="PVC Pipe 3/4&quot; 1m" xr:uid="{A7D27C07-B391-4CD1-8A22-EBFA1F64805F}"/>
     <hyperlink ref="D7" r:id="rId17" display="Union PVC 1 1/2&quot;" xr:uid="{516C1C0A-8679-44A5-BBBA-8F9AEA18C1B3}"/>
@@ -1799,16 +1926,17 @@
     <hyperlink ref="D11" r:id="rId23" display="Tapon soldado 1 1/2&quot;" xr:uid="{4EF30A6C-BAC0-4641-9AA2-8A57948A4FB3}"/>
     <hyperlink ref="D12" r:id="rId24" display="Prensa estopa 1/2&quot;" xr:uid="{BD61F11F-E1F5-4252-B501-F6667D03749D}"/>
     <hyperlink ref="D13" r:id="rId25" display="Union PVC 3/4" xr:uid="{6F1EAA5D-896D-43BA-A390-E049AAD2E19A}"/>
-    <hyperlink ref="D18" r:id="rId26" xr:uid="{01D1CEEC-092A-4F9A-9F62-06BDAC34C991}"/>
-    <hyperlink ref="D23" r:id="rId27" display="Regleta Header Hembra 2x40 pines" xr:uid="{2C4C9FE7-73C3-436D-B8BB-4DD238B22A84}"/>
-    <hyperlink ref="D24" r:id="rId28" display="Regleta Header Hembra 1x40 Pines" xr:uid="{1DEBA34E-0E3C-44DB-88B9-8BCE83D577E2}"/>
-    <hyperlink ref="D25" r:id="rId29" xr:uid="{C1E8D15E-16CB-4468-974B-2A1890C6DC8C}"/>
-    <hyperlink ref="D26" r:id="rId30" xr:uid="{E4D60E8E-E72B-4E1D-814D-E9D94D3E3917}"/>
-    <hyperlink ref="D27" r:id="rId31" xr:uid="{EF21A68F-9128-48FB-95AA-79F2B4E83C79}"/>
-    <hyperlink ref="D28" r:id="rId32" xr:uid="{E5DC368F-02D8-401D-84D3-844CC2AF69BB}"/>
-    <hyperlink ref="D29" r:id="rId33" xr:uid="{B0545A7B-3A6B-433A-B1B0-46075265D2D6}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{01D1CEEC-092A-4F9A-9F62-06BDAC34C991}"/>
+    <hyperlink ref="D24" r:id="rId27" display="Regleta Header Hembra 2x40 pines" xr:uid="{2C4C9FE7-73C3-436D-B8BB-4DD238B22A84}"/>
+    <hyperlink ref="D25" r:id="rId28" display="Regleta Header Hembra 1x40 Pines" xr:uid="{1DEBA34E-0E3C-44DB-88B9-8BCE83D577E2}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{C1E8D15E-16CB-4468-974B-2A1890C6DC8C}"/>
+    <hyperlink ref="D27" r:id="rId30" xr:uid="{E4D60E8E-E72B-4E1D-814D-E9D94D3E3917}"/>
+    <hyperlink ref="D28" r:id="rId31" xr:uid="{EF21A68F-9128-48FB-95AA-79F2B4E83C79}"/>
+    <hyperlink ref="D29" r:id="rId32" xr:uid="{E5DC368F-02D8-401D-84D3-844CC2AF69BB}"/>
+    <hyperlink ref="D30" r:id="rId33" xr:uid="{B0545A7B-3A6B-433A-B1B0-46075265D2D6}"/>
+    <hyperlink ref="D17" r:id="rId34" xr:uid="{9C3FBCD2-6625-44D2-8E73-7523180B6BBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>